--- a/python_selenium/class09_ui_frame/data/data.xlsx
+++ b/python_selenium/class09_ui_frame/data/data.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -32,6 +32,13 @@
       <color rgb="FF0000FF"/>
       <sz val="11"/>
       <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -170,8 +177,11 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="37">
     <fill>
       <patternFill/>
     </fill>
@@ -180,6 +190,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAACF91"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -362,6 +384,16 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AACF91"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -479,10 +511,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -491,16 +523,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
@@ -509,18 +541,15 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -530,108 +559,119 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1049,17 +1089,16 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col width="13.75" customWidth="1" style="1" min="2" max="2"/>
-    <col width="17.125" customWidth="1" style="1" min="6" max="6"/>
+    <col width="23.125" customWidth="1" style="4" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>自动化测试用例Demo</t>
         </is>
@@ -1094,6 +1133,11 @@
       <c r="F2" s="0" t="inlineStr">
         <is>
           <t>操作描述</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>实际结果</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1175,7 @@
           <t>visit</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>http://www.baidu.com</t>
         </is>
@@ -1148,10 +1192,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>qiong</t>
-        </is>
+      <c r="A5" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
@@ -1243,7 +1285,7 @@
           <t>检验搜索是否成功</t>
         </is>
       </c>
-      <c r="G7" s="0" t="inlineStr">
+      <c r="G7" s="6" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -1305,19 +1347,263 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E5"/>
+      <selection activeCell="G1" sqref="G$1:G$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>自动化测试用例Demo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>编号</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>执行操作</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>定位方法</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>定位路径</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>输入文本</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>操作描述</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>实际结果</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>open_browser</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>Edge</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>创建edge浏览器</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>visit</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>http://www.baidu.com</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>访问网页</t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>input</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>kw</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>搜索内容</t>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>su</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t>点击搜索</t>
+        </is>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>assert_text</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>//*[@id="u"]/a[1]</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>百度首页1</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>检验搜索是否成功</t>
+        </is>
+      </c>
+      <c r="G7" s="7" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>强制等待3秒</t>
+        </is>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>quit</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>关闭</t>
+        </is>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E4" display="http://www.baidu.com" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
